--- a/medicine/Psychotrope/Desperados_(bière)/Desperados_(bière).xlsx
+++ b/medicine/Psychotrope/Desperados_(bière)/Desperados_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desperados_(bi%C3%A8re)</t>
+          <t>Desperados_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desperados est une marque de bière aromatisée d'origine alsacienne appartenant aujourd'hui au groupe Heineken et produite en Belgique par la brasserie Alken-Maes.
-La Desperados a été lancée en 1995 par la brasserie Fischer installée à Schiltigheim dans le Bas-Rhin, sous l'impulsion du maître brasseur Fritz Röhrl[1],[2]. La brasserie Fischer est rachetée par le groupe Heineken en 1996[3] et fermée fin 2009.
+La Desperados a été lancée en 1995 par la brasserie Fischer installée à Schiltigheim dans le Bas-Rhin, sous l'impulsion du maître brasseur Fritz Röhrl,. La brasserie Fischer est rachetée par le groupe Heineken en 1996 et fermée fin 2009.
 Les bières Desperados sont désormais produites par la brasserie de l'Espérance, également installée à Schiltigheim, par la brasserie du Pélican de Mons-en-Barœul dans le Nord et par la brasserie de la Valentine de Marseille dans les Bouches-du-Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Desperados_(bi%C3%A8re)</t>
+          <t>Desperados_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,26 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desperados
-Bière aromatisée, 5,9 % créée en 1995, elle est brassée principalement à Schiltigheim[4]. L'originale est une bière blonde aromatisée à la tequila[1]. Elle est proposée à la vente en bouteilles de verre de 25 cl, 33 cl, 65 cl et 120 cl (Série 120) seule ou en pack (3 à 20) ainsi qu'en canettes aluminium (25 cl, 33 cl et 50 cl). Selon le site internet Heineken, son nom provient du fait qu'après l'avoir créée, elle était toujours sans nom et l'entreprise était désespérée de ne pas lui en trouver un. Parfois, des séries de bouteilles spéciales font leur apparition. La police de caractères du logotype rappelle le style western.
-Desperados Lime
-Bière aromatisée à la tequila et lime (citron vert), 3 %, anciennement Desperados Mas puis renommée Desperados Lime[5].
-Desperados Red
-Bière aromatisée à la tequila, cachaça (alcool brésilien) et guarana, 5,9 %.
-Desperados Mojito
-Anciennement Desperados Verde! Bière aromatisée à la tequila, au citron, citron vert (lime) et menthe, 5,9 %[6].
-Desperados Black
-Bière aromatisée à la tequila, avec des arômes de tequila vieillie en fût (aged tequila), 5,9 %. Il s'agit d'une version haut de gamme de la boisson.
-Desperados Fuego
-Bière aromatisée à la tequila, épicée, 5,9 %. Cette variante n'est plus produite depuis mars 2015[7].
-Desperados Flare
-Bière aromatisée à la tequila, contenant une substance qui produit un effet visuel appelé Gold effect lorsque la bouteille est retournée, 5,9 %. Produite en édition limitée d'août 2016 jusqu'à fin décembre 2016.
-Desperados Sangré
-Desperados classic aromatisé raisin, épices. 5,9 % d'alcool.
-Desperados Ginger
-Bière aromatisée au gingembre et au citron vert, lancé en 2019. Son goût est fruité, frais et épicé. 5 % d'alcool.
-Desperados Florida Sunrise
-Bière aromatisée à la tequila, aux zestes d'orange et au sirop de grenadine, 5,9 % d'alcool ; lancée en mars 2021[8].
+          <t>Desperados</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée, 5,9 % créée en 1995, elle est brassée principalement à Schiltigheim. L'originale est une bière blonde aromatisée à la tequila. Elle est proposée à la vente en bouteilles de verre de 25 cl, 33 cl, 65 cl et 120 cl (Série 120) seule ou en pack (3 à 20) ainsi qu'en canettes aluminium (25 cl, 33 cl et 50 cl). Selon le site internet Heineken, son nom provient du fait qu'après l'avoir créée, elle était toujours sans nom et l'entreprise était désespérée de ne pas lui en trouver un. Parfois, des séries de bouteilles spéciales font leur apparition. La police de caractères du logotype rappelle le style western.
 </t>
         </is>
       </c>
@@ -545,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Desperados_(bi%C3%A8re)</t>
+          <t>Desperados_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,10 +559,345 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Desperados Lime</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila et lime (citron vert), 3 %, anciennement Desperados Mas puis renommée Desperados Lime.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Desperados Red</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila, cachaça (alcool brésilien) et guarana, 5,9 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Desperados Mojito</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement Desperados Verde! Bière aromatisée à la tequila, au citron, citron vert (lime) et menthe, 5,9 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Desperados Black</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila, avec des arômes de tequila vieillie en fût (aged tequila), 5,9 %. Il s'agit d'une version haut de gamme de la boisson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Desperados Fuego</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila, épicée, 5,9 %. Cette variante n'est plus produite depuis mars 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Desperados Flare</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila, contenant une substance qui produit un effet visuel appelé Gold effect lorsque la bouteille est retournée, 5,9 %. Produite en édition limitée d'août 2016 jusqu'à fin décembre 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Desperados Sangré</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desperados classic aromatisé raisin, épices. 5,9 % d'alcool.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Desperados Ginger</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée au gingembre et au citron vert, lancé en 2019. Son goût est fruité, frais et épicé. 5 % d'alcool.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les bières aromatisées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Desperados Florida Sunrise</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière aromatisée à la tequila, aux zestes d'orange et au sirop de grenadine, 5,9 % d'alcool ; lancée en mars 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Desperados_(bière)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desperados_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Communication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que d'origine alsacienne, la marque base toute sa communication sur son nom avec une identité héritée du Mexique.
 </t>
